--- a/biology/Médecine/Hanna_Chrzanowska/Hanna_Chrzanowska.xlsx
+++ b/biology/Médecine/Hanna_Chrzanowska/Hanna_Chrzanowska.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hanna Helena Chrzanowska (Varsovie, 7 octobre 1902 - 29 avril 1973, Cracovie), était une religieuse catholique et infirmière polonaise, oblate bénédictine. Béatifiée le 28 avril 2018, elle est reconnue bienheureuse par l'Église catholique.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanna Chrzanowska est issue d'une famille aisée et profondément religieuse. Son père est un universitaire, et elle est élevée dans les préceptes de la foi catholique et de la charité chrétienne. Elève dans l'école des ursulines de Varsovie, elle aidera les religieuses de la communauté à soigner les blessés lors de la révolution bolchévique. Discernant une véritable vocation d'infirmière, elle part faire des études à Paris. 
 De retour en Pologne, elle devient professeur des infirmières à l'université de Varsovie puis éditrice de la revue des infirmières polonaises. Elle voit sa profession comme une manière de répondre à la volonté de Dieu. Pour répondre à l'approfondissement de sa vie spirituelle, elle intègre l'Ordre de Saint-Benoît en tant qu'oblate. 
@@ -546,11 +560,13 @@
           <t>Béatification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cause pour sa béatification est introduite le 28 avril 1997.
 Le 30 septembre 2015, le pape François reconnaît l'héroïcité de ses vertus et la déclare vénérable.
-Le 7 juillet 2017, le pape François reconnaît comme authentique un miracle attribué à l'intercession d'Hanna Chrzanowska et signe le décret de béatification[1]. Elle est proclamée bienheureuse au cours d'une cérémonie célébrée le 28 avril 2018 au Sanctuaire de la Miséricorde Divine de Cracovie[2],[3].
+Le 7 juillet 2017, le pape François reconnaît comme authentique un miracle attribué à l'intercession d'Hanna Chrzanowska et signe le décret de béatification. Elle est proclamée bienheureuse au cours d'une cérémonie célébrée le 28 avril 2018 au Sanctuaire de la Miséricorde Divine de Cracovie,.
 </t>
         </is>
       </c>
